--- a/Watch list v2.xlsx
+++ b/Watch list v2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hjang\Documents\FEWD 15\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\Final-project-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C1BBC11-4F28-4847-B5D0-A5B25E064133}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>0-250</t>
   </si>
@@ -162,9 +163,6 @@
     <t>Dressy</t>
   </si>
   <si>
-    <t>Waterproof</t>
-  </si>
-  <si>
     <t>Metal</t>
   </si>
   <si>
@@ -174,9 +172,6 @@
     <t>No preference</t>
   </si>
   <si>
-    <t>Do you plan to want your watch to display a date?</t>
-  </si>
-  <si>
     <t>Price (high)</t>
   </si>
   <si>
@@ -238,12 +233,39 @@
   </si>
   <si>
     <t>show progress of options selected as you progress</t>
+  </si>
+  <si>
+    <t>Do you want your watch to display a date?</t>
+  </si>
+  <si>
+    <t>Tisell Bauhaus</t>
+  </si>
+  <si>
+    <t>http://tisellkr.com/product/tisell-bauhaus-design-38mm-miyota-9015-automatic/30/?cate_no=1&amp;display_group=2</t>
+  </si>
+  <si>
+    <t>Seiko 5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Seiko-SNK807-Automatic-Stainless-Canvas/dp/B006CHML4I/ref=cts_wa_2_vtp?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_p=76154825667896829&amp;pf_rd_r=a46bdc99-6df4-11e8-a18c-6543cc2cb0c3&amp;pd_rd_wg=2X0Om&amp;pf_rd_s=desktop-detail-softlines&amp;pf_rd_t=40701&amp;pd_rd_i=B006CHML4I&amp;pd_rd_w=4DfnF&amp;pf_rd_i=desktop-detail-softlines&amp;pd_rd_r=a46bdc99-6df4-11e8-a18c-6543cc2cb0c3&amp;_encoding=UTF8</t>
+  </si>
+  <si>
+    <t>Skagen Ancher</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Mesh</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skagen-Mens-Ancher-Bracelet-Watch/dp/B077NM817Y/ref=pd_sbs_241_8?_encoding=UTF8&amp;pd_rd_i=B077NM817Y&amp;pd_rd_r=17H3SXTSB17VYE175XR4&amp;pd_rd_w=tcoao&amp;pd_rd_wg=I2EXw&amp;refRID=17H3SXTSB17VYE175XR4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -302,7 +324,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -314,6 +335,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,140 +618,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,504 +757,595 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="180.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>250</v>
+      </c>
+      <c r="D2" s="6">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>250</v>
+      </c>
+      <c r="D3" s="6">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C4" s="2">
         <v>250</v>
       </c>
-      <c r="D2" s="1">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" s="6">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>250</v>
+      </c>
+      <c r="D5" s="6">
+        <v>205</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>250</v>
+      </c>
+      <c r="D6" s="6">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>250</v>
+      </c>
+      <c r="D7" s="6">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>250</v>
+      </c>
+      <c r="C8" s="2">
+        <v>500</v>
+      </c>
+      <c r="D8" s="6">
+        <v>480</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>250</v>
+      </c>
+      <c r="C9" s="2">
+        <v>500</v>
+      </c>
+      <c r="D9" s="6">
+        <v>440</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
         <v>250</v>
       </c>
-      <c r="D3" s="1">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C10" s="2">
+        <v>500</v>
+      </c>
+      <c r="D10" s="6">
+        <v>400</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="6">
+        <v>965</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>500</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>830</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>875</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1190</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1650</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1290</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>250</v>
-      </c>
-      <c r="D4" s="1">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4960</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>250</v>
-      </c>
-      <c r="C5" s="3">
-        <v>500</v>
-      </c>
-      <c r="D5" s="1">
-        <v>480</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>250</v>
-      </c>
-      <c r="C6" s="3">
-        <v>500</v>
-      </c>
-      <c r="D6" s="1">
-        <v>440</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>250</v>
-      </c>
-      <c r="C7" s="3">
-        <v>500</v>
-      </c>
-      <c r="D7" s="1">
-        <v>400</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3475</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>500</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>965</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
-        <v>500</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>830</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3">
-        <v>500</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>875</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1190</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1650</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1290</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4400</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4960</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3475</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I15"/>
+  <autoFilter ref="A1:I18" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2" display="https://www.amazon.com/Orient-Bambino-Japanese-Automatic-Stainless/dp/B072K5JSF5/ref=cts_wa_3_vtp?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_p=76154825667896829&amp;pf_rd_r=e1ccdc16-6a05-11e8-9aef-318d67f390c4&amp;pd_rd_wg=FI8sq&amp;pf_rd_s=desktop-detail-softlines&amp;pf_rd_t=40701&amp;pd_rd_i=B072K5JSF5&amp;pd_rd_w=pYrBp&amp;pf_rd_i=desktop-detail-softlines&amp;pd_rd_r=e1ccdc16-6a05-11e8-9aef-318d67f390c4&amp;_encoding=UTF8"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I16" r:id="rId10"/>
-    <hyperlink ref="I11" r:id="rId11"/>
-    <hyperlink ref="I12" r:id="rId12"/>
-    <hyperlink ref="I13" r:id="rId13"/>
-    <hyperlink ref="I14" r:id="rId14"/>
-    <hyperlink ref="I15" r:id="rId15"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://www.amazon.com/Orient-Bambino-Japanese-Automatic-Stainless/dp/B072K5JSF5/ref=cts_wa_3_vtp?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_p=76154825667896829&amp;pf_rd_r=e1ccdc16-6a05-11e8-9aef-318d67f390c4&amp;pd_rd_wg=FI8sq&amp;pf_rd_s=desktop-detail-softlines&amp;pf_rd_t=40701&amp;pd_rd_i=B072K5JSF5&amp;pd_rd_w=pYrBp&amp;pf_rd_i=desktop-detail-softlines&amp;pd_rd_r=e1ccdc16-6a05-11e8-9aef-318d67f390c4&amp;_encoding=UTF8" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I19" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="I14" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="I15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="I16" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="I17" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="I18" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="I6" r:id="rId16" display="https://www.amazon.com/Seiko-SNK807-Automatic-Stainless-Canvas/dp/B006CHML4I/ref=cts_wa_2_vtp?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_p=76154825667896829&amp;pf_rd_r=a46bdc99-6df4-11e8-a18c-6543cc2cb0c3&amp;pd_rd_wg=2X0Om&amp;pf_rd_s=desktop-detail-softlines&amp;pf_rd_t=40701&amp;pd_rd_i=B006CHML4I&amp;pd_rd_w=4DfnF&amp;pf_rd_i=desktop-detail-softlines&amp;pd_rd_r=a46bdc99-6df4-11e8-a18c-6543cc2cb0c3&amp;_encoding=UTF8" xr:uid="{2453DD09-ECFB-4324-9435-A5F35006019F}"/>
+    <hyperlink ref="I7" r:id="rId17" xr:uid="{FF068F30-F273-4714-B141-E20620E8448D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Watch list v2.xlsx
+++ b/Watch list v2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\Final-project-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C1BBC11-4F28-4847-B5D0-A5B25E064133}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B38243B-F34B-4972-B675-268844F61888}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>0-250</t>
   </si>
@@ -58,18 +58,12 @@
     <t>https://www.amazon.com/Timex-Unisex-T2N651-Weekender-Slip-Thru/dp/B004VR9GCQ/ref=swr_wa_1_ses?th=1&amp;psc=1</t>
   </si>
   <si>
-    <t>Dress</t>
-  </si>
-  <si>
     <t>Orient Bambino</t>
   </si>
   <si>
     <t>Vostok Amphibian</t>
   </si>
   <si>
-    <t>Diver</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Vostok-Amphibian-Military-Russian-420059/dp/B00TK56Q18/ref=sr_1_1</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>Strap</t>
   </si>
   <si>
-    <t>Date?</t>
-  </si>
-  <si>
     <t>Nylon</t>
   </si>
   <si>
@@ -238,12 +229,6 @@
     <t>Do you want your watch to display a date?</t>
   </si>
   <si>
-    <t>Tisell Bauhaus</t>
-  </si>
-  <si>
-    <t>http://tisellkr.com/product/tisell-bauhaus-design-38mm-miyota-9015-automatic/30/?cate_no=1&amp;display_group=2</t>
-  </si>
-  <si>
     <t>Seiko 5</t>
   </si>
   <si>
@@ -260,6 +245,15 @@
   </si>
   <si>
     <t>https://www.amazon.com/Skagen-Mens-Ancher-Bracelet-Watch/dp/B077NM817Y/ref=pd_sbs_241_8?_encoding=UTF8&amp;pd_rd_i=B077NM817Y&amp;pd_rd_r=17H3SXTSB17VYE175XR4&amp;pd_rd_w=tcoao&amp;pd_rd_wg=I2EXw&amp;refRID=17H3SXTSB17VYE175XR4</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Citizen Eco-Drive</t>
+  </si>
+  <si>
+    <t>https://www.jomashop.com/citizen-watch-bu2013-08e.html</t>
   </si>
 </sst>
 </file>
@@ -621,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,22 +632,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -661,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,65 +678,65 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -760,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -790,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>7</v>
@@ -819,13 +813,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
@@ -833,7 +827,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -845,24 +839,24 @@
         <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -877,21 +871,21 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -900,27 +894,27 @@
         <v>250</v>
       </c>
       <c r="D5" s="6">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -935,21 +929,21 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -961,24 +955,24 @@
         <v>98</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>250</v>
@@ -990,24 +984,24 @@
         <v>480</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>250</v>
@@ -1019,24 +1013,24 @@
         <v>440</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>250</v>
@@ -1051,21 +1045,21 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
@@ -1077,24 +1071,24 @@
         <v>965</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>500</v>
@@ -1106,24 +1100,24 @@
         <v>830</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>500</v>
@@ -1138,21 +1132,21 @@
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>1000</v>
@@ -1164,24 +1158,24 @@
         <v>1190</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
         <v>1000</v>
@@ -1193,24 +1187,24 @@
         <v>1650</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>1000</v>
@@ -1225,21 +1219,21 @@
         <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>2000</v>
@@ -1251,24 +1245,24 @@
         <v>4400</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>2000</v>
@@ -1280,24 +1274,24 @@
         <v>4960</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>2000</v>
@@ -1312,20 +1306,20 @@
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I18" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I19" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I3" r:id="rId2" display="https://www.amazon.com/Orient-Bambino-Japanese-Automatic-Stainless/dp/B072K5JSF5/ref=cts_wa_3_vtp?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_p=76154825667896829&amp;pf_rd_r=e1ccdc16-6a05-11e8-9aef-318d67f390c4&amp;pd_rd_wg=FI8sq&amp;pf_rd_s=desktop-detail-softlines&amp;pf_rd_t=40701&amp;pd_rd_i=B072K5JSF5&amp;pd_rd_w=pYrBp&amp;pf_rd_i=desktop-detail-softlines&amp;pd_rd_r=e1ccdc16-6a05-11e8-9aef-318d67f390c4&amp;_encoding=UTF8" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
